--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022年第一季度/技术面20220713.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2022年第一季度/技术面20220713.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$398</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -2858,11 +2861,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -2882,15 +2885,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2903,41 +2912,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2959,6 +2938,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2967,14 +2954,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,17 +2981,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3025,15 +3026,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3054,7 +3063,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,7 +3105,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,79 +3231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3162,79 +3249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,59 +3278,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3346,174 +3319,219 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3568,7 +3586,29 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3898,15 +3938,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -3941,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +4004,7 @@
         <v>4.294</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4027,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4010,7 +4050,7 @@
         <v>7.639</v>
       </c>
     </row>
-    <row r="5" ht="41" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -4033,7 +4073,7 @@
         <v>3.953</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -4060,7 +4100,7 @@
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -4079,7 +4119,7 @@
         <v>67.129</v>
       </c>
     </row>
-    <row r="8" ht="41" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -4102,7 +4142,7 @@
         <v>4.469</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -4125,7 +4165,7 @@
         <v>10.329</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -4148,11 +4188,11 @@
         <v>4.254</v>
       </c>
     </row>
-    <row r="11" ht="41" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4171,7 +4211,7 @@
         <v>5.956</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:7">
+    <row r="12" hidden="1" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -4194,7 +4234,7 @@
         <v>7.902</v>
       </c>
     </row>
-    <row r="13" ht="41" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -4217,7 +4257,7 @@
         <v>5.808</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4240,7 +4280,7 @@
         <v>8.109</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -4263,7 +4303,7 @@
         <v>11.691</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -4286,7 +4326,7 @@
         <v>3.434</v>
       </c>
     </row>
-    <row r="17" ht="41" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -4309,7 +4349,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -4332,7 +4372,7 @@
         <v>5.195</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -4355,7 +4395,7 @@
         <v>3.075</v>
       </c>
     </row>
-    <row r="20" ht="41" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -4378,7 +4418,7 @@
         <v>5.064</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -4401,7 +4441,7 @@
         <v>12.967</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -4424,7 +4464,7 @@
         <v>32.09</v>
       </c>
     </row>
-    <row r="23" ht="28" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -4447,7 +4487,7 @@
         <v>18.832</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -4470,7 +4510,7 @@
         <v>8.376</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
@@ -4493,7 +4533,7 @@
         <v>25.036</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -4516,7 +4556,7 @@
         <v>22.889</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>74</v>
       </c>
@@ -4539,7 +4579,7 @@
         <v>10.035</v>
       </c>
     </row>
-    <row r="28" ht="41" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
@@ -4562,7 +4602,7 @@
         <v>4.867</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -4585,7 +4625,7 @@
         <v>9.599</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -4608,7 +4648,7 @@
         <v>6.969</v>
       </c>
     </row>
-    <row r="31" ht="28" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -4631,7 +4671,7 @@
         <v>6.356</v>
       </c>
     </row>
-    <row r="32" ht="28" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -4654,7 +4694,7 @@
         <v>3.807</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>89</v>
       </c>
@@ -4677,7 +4717,7 @@
         <v>6.712</v>
       </c>
     </row>
-    <row r="34" ht="28" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="35" ht="41" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4723,7 +4763,7 @@
         <v>5.008</v>
       </c>
     </row>
-    <row r="36" ht="28" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>96</v>
       </c>
@@ -4746,7 +4786,7 @@
         <v>5.427</v>
       </c>
     </row>
-    <row r="37" ht="55" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
@@ -4769,7 +4809,7 @@
         <v>11.864</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -4792,7 +4832,7 @@
         <v>10.601</v>
       </c>
     </row>
-    <row r="39" ht="68" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
@@ -4815,7 +4855,7 @@
         <v>10.386</v>
       </c>
     </row>
-    <row r="40" ht="55" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -4842,7 +4882,7 @@
       <c r="A41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4861,7 +4901,7 @@
         <v>20.417</v>
       </c>
     </row>
-    <row r="42" ht="28" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -4884,7 +4924,7 @@
         <v>25.699</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -4907,7 +4947,7 @@
         <v>5.614</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
@@ -4930,7 +4970,7 @@
         <v>3.478</v>
       </c>
     </row>
-    <row r="45" ht="41" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
@@ -4953,7 +4993,7 @@
         <v>13.973</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
@@ -4976,7 +5016,7 @@
         <v>9.638</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
@@ -4999,7 +5039,7 @@
         <v>5.768</v>
       </c>
     </row>
-    <row r="48" ht="41" spans="1:7">
+    <row r="48" hidden="1" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
@@ -5022,7 +5062,7 @@
         <v>3.454</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:7">
+    <row r="49" hidden="1" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>130</v>
       </c>
@@ -5045,7 +5085,7 @@
         <v>8.777</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" hidden="1" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>133</v>
       </c>
@@ -5068,7 +5108,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" hidden="1" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>135</v>
       </c>
@@ -5091,7 +5131,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" hidden="1" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>138</v>
       </c>
@@ -5114,7 +5154,7 @@
         <v>3.871</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:7">
+    <row r="53" hidden="1" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
@@ -5137,7 +5177,7 @@
         <v>3.752</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="1:7">
+    <row r="54" hidden="1" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>144</v>
       </c>
@@ -5160,7 +5200,7 @@
         <v>11.932</v>
       </c>
     </row>
-    <row r="55" ht="41" spans="1:7">
+    <row r="55" hidden="1" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>147</v>
       </c>
@@ -5183,7 +5223,7 @@
         <v>7.733</v>
       </c>
     </row>
-    <row r="56" ht="41" spans="1:7">
+    <row r="56" hidden="1" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -5206,7 +5246,7 @@
         <v>4.081</v>
       </c>
     </row>
-    <row r="57" ht="28" spans="1:7">
+    <row r="57" hidden="1" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -5229,7 +5269,7 @@
         <v>3.496</v>
       </c>
     </row>
-    <row r="58" ht="41" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>155</v>
       </c>
@@ -5252,7 +5292,7 @@
         <v>4.318</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" hidden="1" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>158</v>
       </c>
@@ -5275,7 +5315,7 @@
         <v>3.675</v>
       </c>
     </row>
-    <row r="60" ht="41" spans="1:7">
+    <row r="60" hidden="1" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>160</v>
       </c>
@@ -5298,7 +5338,7 @@
         <v>7.665</v>
       </c>
     </row>
-    <row r="61" ht="41" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
@@ -5321,7 +5361,7 @@
         <v>54.108</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -5344,7 +5384,7 @@
         <v>67.022</v>
       </c>
     </row>
-    <row r="63" ht="28" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>167</v>
       </c>
@@ -5367,7 +5407,7 @@
         <v>23.576</v>
       </c>
     </row>
-    <row r="64" ht="41" spans="1:7">
+    <row r="64" hidden="1" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>170</v>
       </c>
@@ -5390,7 +5430,7 @@
         <v>3.358</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" hidden="1" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>173</v>
       </c>
@@ -5413,7 +5453,7 @@
         <v>35.396</v>
       </c>
     </row>
-    <row r="66" ht="55" spans="1:7">
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>176</v>
       </c>
@@ -5436,7 +5476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="41" spans="1:7">
+    <row r="67" hidden="1" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>179</v>
       </c>
@@ -5459,7 +5499,7 @@
         <v>11.914</v>
       </c>
     </row>
-    <row r="68" ht="28" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>181</v>
       </c>
@@ -5482,7 +5522,7 @@
         <v>5.476</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" hidden="1" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>183</v>
       </c>
@@ -5505,7 +5545,7 @@
         <v>14.756</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>186</v>
       </c>
@@ -5528,7 +5568,7 @@
         <v>44.941</v>
       </c>
     </row>
-    <row r="71" ht="41" spans="1:7">
+    <row r="71" hidden="1" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>188</v>
       </c>
@@ -5551,7 +5591,7 @@
         <v>14.917</v>
       </c>
     </row>
-    <row r="72" ht="55" spans="1:7">
+    <row r="72" hidden="1" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>190</v>
       </c>
@@ -5574,7 +5614,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="73" ht="28" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>192</v>
       </c>
@@ -5597,7 +5637,7 @@
         <v>6.203</v>
       </c>
     </row>
-    <row r="74" ht="55" spans="1:7">
+    <row r="74" hidden="1" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>195</v>
       </c>
@@ -5620,7 +5660,7 @@
         <v>16.14</v>
       </c>
     </row>
-    <row r="75" ht="41" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>198</v>
       </c>
@@ -5643,7 +5683,7 @@
         <v>10.346</v>
       </c>
     </row>
-    <row r="76" ht="41" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>200</v>
       </c>
@@ -5666,7 +5706,7 @@
         <v>6.514</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:7">
+    <row r="77" hidden="1" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
@@ -5689,7 +5729,7 @@
         <v>11.74</v>
       </c>
     </row>
-    <row r="78" ht="55" spans="1:7">
+    <row r="78" hidden="1" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>205</v>
       </c>
@@ -5712,11 +5752,11 @@
         <v>7.937</v>
       </c>
     </row>
-    <row r="79" ht="28" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -5735,7 +5775,7 @@
         <v>49.592</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="1:7">
+    <row r="80" hidden="1" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>210</v>
       </c>
@@ -5758,7 +5798,7 @@
         <v>4.348</v>
       </c>
     </row>
-    <row r="81" ht="28" spans="1:7">
+    <row r="81" hidden="1" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>212</v>
       </c>
@@ -5781,7 +5821,7 @@
         <v>10.138</v>
       </c>
     </row>
-    <row r="82" ht="41" spans="1:7">
+    <row r="82" hidden="1" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>215</v>
       </c>
@@ -5804,7 +5844,7 @@
         <v>17.977</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>217</v>
       </c>
@@ -5827,7 +5867,7 @@
         <v>50.756</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" hidden="1" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>220</v>
       </c>
@@ -5850,7 +5890,7 @@
         <v>10.101</v>
       </c>
     </row>
-    <row r="85" ht="28" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>223</v>
       </c>
@@ -5873,7 +5913,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="86" ht="28" spans="1:7">
+    <row r="86" hidden="1" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>225</v>
       </c>
@@ -5896,7 +5936,7 @@
         <v>4.138</v>
       </c>
     </row>
-    <row r="87" ht="55" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>227</v>
       </c>
@@ -5919,7 +5959,7 @@
         <v>5.552</v>
       </c>
     </row>
-    <row r="88" ht="28" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>229</v>
       </c>
@@ -5942,7 +5982,7 @@
         <v>2.684</v>
       </c>
     </row>
-    <row r="89" ht="28" spans="1:7">
+    <row r="89" hidden="1" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>232</v>
       </c>
@@ -5965,7 +6005,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" hidden="1" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>235</v>
       </c>
@@ -5988,7 +6028,7 @@
         <v>131.486</v>
       </c>
     </row>
-    <row r="91" ht="28" spans="1:7">
+    <row r="91" hidden="1" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>237</v>
       </c>
@@ -6011,7 +6051,7 @@
         <v>13.505</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>239</v>
       </c>
@@ -6034,7 +6074,7 @@
         <v>43.236</v>
       </c>
     </row>
-    <row r="93" ht="28" spans="1:7">
+    <row r="93" hidden="1" spans="1:7">
       <c r="A93" s="2" t="s">
         <v>242</v>
       </c>
@@ -6057,7 +6097,7 @@
         <v>7.433</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" hidden="1" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>244</v>
       </c>
@@ -6080,7 +6120,7 @@
         <v>14.123</v>
       </c>
     </row>
-    <row r="95" ht="41" spans="1:7">
+    <row r="95" hidden="1" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>247</v>
       </c>
@@ -6103,7 +6143,7 @@
         <v>4.193</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>250</v>
       </c>
@@ -6126,7 +6166,7 @@
         <v>53.282</v>
       </c>
     </row>
-    <row r="97" ht="41" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>253</v>
       </c>
@@ -6153,7 +6193,7 @@
       <c r="A98" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -6172,7 +6212,7 @@
         <v>20.552</v>
       </c>
     </row>
-    <row r="99" ht="41" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>257</v>
       </c>
@@ -6195,7 +6235,7 @@
         <v>8.345</v>
       </c>
     </row>
-    <row r="100" ht="28" spans="1:7">
+    <row r="100" hidden="1" spans="1:7">
       <c r="A100" s="2" t="s">
         <v>259</v>
       </c>
@@ -6218,7 +6258,7 @@
         <v>16.06</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" hidden="1" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>261</v>
       </c>
@@ -6241,7 +6281,7 @@
         <v>8.069</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" hidden="1" spans="1:7">
       <c r="A102" s="2" t="s">
         <v>263</v>
       </c>
@@ -6264,7 +6304,7 @@
         <v>6.236</v>
       </c>
     </row>
-    <row r="103" ht="28" spans="1:7">
+    <row r="103" hidden="1" spans="1:7">
       <c r="A103" s="2" t="s">
         <v>265</v>
       </c>
@@ -6287,7 +6327,7 @@
         <v>4.965</v>
       </c>
     </row>
-    <row r="104" ht="28" spans="1:7">
+    <row r="104" hidden="1" spans="1:7">
       <c r="A104" s="2" t="s">
         <v>268</v>
       </c>
@@ -6310,7 +6350,7 @@
         <v>2.789</v>
       </c>
     </row>
-    <row r="105" ht="41" spans="1:7">
+    <row r="105" hidden="1" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>271</v>
       </c>
@@ -6333,11 +6373,11 @@
         <v>12.001</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:7">
+    <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -6356,7 +6396,7 @@
         <v>8.161</v>
       </c>
     </row>
-    <row r="107" ht="28" spans="1:7">
+    <row r="107" hidden="1" spans="1:7">
       <c r="A107" s="2" t="s">
         <v>277</v>
       </c>
@@ -6379,7 +6419,7 @@
         <v>2.826</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" hidden="1" spans="1:7">
       <c r="A108" s="2" t="s">
         <v>279</v>
       </c>
@@ -6402,7 +6442,7 @@
         <v>6.354</v>
       </c>
     </row>
-    <row r="109" ht="28" spans="1:7">
+    <row r="109" hidden="1" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>281</v>
       </c>
@@ -6425,11 +6465,11 @@
         <v>24.002</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:7">
+    <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -6448,7 +6488,7 @@
         <v>4.322</v>
       </c>
     </row>
-    <row r="111" ht="28" spans="1:7">
+    <row r="111" hidden="1" spans="1:7">
       <c r="A111" s="2" t="s">
         <v>286</v>
       </c>
@@ -6471,7 +6511,7 @@
         <v>8.189</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" hidden="1" spans="1:7">
       <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
@@ -6494,7 +6534,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="113" ht="28" spans="1:7">
+    <row r="113" hidden="1" spans="1:7">
       <c r="A113" s="2" t="s">
         <v>291</v>
       </c>
@@ -6517,7 +6557,7 @@
         <v>9.084</v>
       </c>
     </row>
-    <row r="114" ht="28" spans="1:7">
+    <row r="114" hidden="1" spans="1:7">
       <c r="A114" s="2" t="s">
         <v>294</v>
       </c>
@@ -6540,7 +6580,7 @@
         <v>7.072</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" hidden="1" spans="1:7">
       <c r="A115" s="2" t="s">
         <v>296</v>
       </c>
@@ -6563,7 +6603,7 @@
         <v>5.181</v>
       </c>
     </row>
-    <row r="116" ht="28" spans="1:7">
+    <row r="116" hidden="1" spans="1:7">
       <c r="A116" s="2" t="s">
         <v>299</v>
       </c>
@@ -6586,7 +6626,7 @@
         <v>16.855</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" hidden="1" spans="1:7">
       <c r="A117" s="2" t="s">
         <v>302</v>
       </c>
@@ -6609,7 +6649,7 @@
         <v>5.746</v>
       </c>
     </row>
-    <row r="118" ht="41" spans="1:7">
+    <row r="118" hidden="1" spans="1:7">
       <c r="A118" s="2" t="s">
         <v>304</v>
       </c>
@@ -6632,7 +6672,7 @@
         <v>12.705</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" hidden="1" spans="1:7">
       <c r="A119" s="2" t="s">
         <v>307</v>
       </c>
@@ -6655,7 +6695,7 @@
         <v>4.555</v>
       </c>
     </row>
-    <row r="120" ht="28" spans="1:7">
+    <row r="120" hidden="1" spans="1:7">
       <c r="A120" s="2" t="s">
         <v>310</v>
       </c>
@@ -6678,7 +6718,7 @@
         <v>3.919</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" hidden="1" spans="1:7">
       <c r="A121" s="2" t="s">
         <v>312</v>
       </c>
@@ -6701,7 +6741,7 @@
         <v>222.311</v>
       </c>
     </row>
-    <row r="122" ht="41" spans="1:7">
+    <row r="122" hidden="1" spans="1:7">
       <c r="A122" s="2" t="s">
         <v>314</v>
       </c>
@@ -6724,7 +6764,7 @@
         <v>14.576</v>
       </c>
     </row>
-    <row r="123" ht="28" spans="1:7">
+    <row r="123" hidden="1" spans="1:7">
       <c r="A123" s="2" t="s">
         <v>316</v>
       </c>
@@ -6747,7 +6787,7 @@
         <v>4.959</v>
       </c>
     </row>
-    <row r="124" ht="28" spans="1:7">
+    <row r="124" hidden="1" spans="1:7">
       <c r="A124" s="2" t="s">
         <v>318</v>
       </c>
@@ -6770,7 +6810,7 @@
         <v>23.171</v>
       </c>
     </row>
-    <row r="125" ht="41" spans="1:7">
+    <row r="125" hidden="1" spans="1:7">
       <c r="A125" s="2" t="s">
         <v>320</v>
       </c>
@@ -6793,7 +6833,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" hidden="1" spans="1:7">
       <c r="A126" s="2" t="s">
         <v>323</v>
       </c>
@@ -6816,7 +6856,7 @@
         <v>9.284</v>
       </c>
     </row>
-    <row r="127" ht="28" spans="1:7">
+    <row r="127" hidden="1" spans="1:7">
       <c r="A127" s="2" t="s">
         <v>325</v>
       </c>
@@ -6839,7 +6879,7 @@
         <v>3.322</v>
       </c>
     </row>
-    <row r="128" ht="28" spans="1:7">
+    <row r="128" hidden="1" spans="1:7">
       <c r="A128" s="2" t="s">
         <v>328</v>
       </c>
@@ -6862,7 +6902,7 @@
         <v>11.566</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" hidden="1" spans="1:7">
       <c r="A129" s="2" t="s">
         <v>331</v>
       </c>
@@ -6885,7 +6925,7 @@
         <v>66.957</v>
       </c>
     </row>
-    <row r="130" ht="41" spans="1:7">
+    <row r="130" hidden="1" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>333</v>
       </c>
@@ -6908,7 +6948,7 @@
         <v>4.4</v>
       </c>
     </row>
-    <row r="131" ht="28" spans="1:7">
+    <row r="131" hidden="1" spans="1:7">
       <c r="A131" s="2" t="s">
         <v>335</v>
       </c>
@@ -6931,7 +6971,7 @@
         <v>4.679</v>
       </c>
     </row>
-    <row r="132" ht="28" spans="1:7">
+    <row r="132" hidden="1" spans="1:7">
       <c r="A132" s="2" t="s">
         <v>338</v>
       </c>
@@ -6954,7 +6994,7 @@
         <v>4.441</v>
       </c>
     </row>
-    <row r="133" ht="28" spans="1:7">
+    <row r="133" hidden="1" spans="1:7">
       <c r="A133" s="2" t="s">
         <v>340</v>
       </c>
@@ -6977,7 +7017,7 @@
         <v>16.513</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" hidden="1" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>343</v>
       </c>
@@ -7000,7 +7040,7 @@
         <v>3.486</v>
       </c>
     </row>
-    <row r="135" ht="28" spans="1:7">
+    <row r="135" hidden="1" spans="1:7">
       <c r="A135" s="2" t="s">
         <v>345</v>
       </c>
@@ -7023,7 +7063,7 @@
         <v>12.029</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" hidden="1" spans="1:7">
       <c r="A136" s="2" t="s">
         <v>348</v>
       </c>
@@ -7046,7 +7086,7 @@
         <v>4.101</v>
       </c>
     </row>
-    <row r="137" ht="28" spans="1:7">
+    <row r="137" hidden="1" spans="1:7">
       <c r="A137" s="2" t="s">
         <v>351</v>
       </c>
@@ -7069,7 +7109,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="138" ht="28" spans="1:7">
+    <row r="138" hidden="1" spans="1:7">
       <c r="A138" s="2" t="s">
         <v>353</v>
       </c>
@@ -7092,7 +7132,7 @@
         <v>4.436</v>
       </c>
     </row>
-    <row r="139" ht="28" spans="1:7">
+    <row r="139" hidden="1" spans="1:7">
       <c r="A139" s="2" t="s">
         <v>355</v>
       </c>
@@ -7115,11 +7155,11 @@
         <v>8.614</v>
       </c>
     </row>
-    <row r="140" ht="28" spans="1:7">
+    <row r="140" spans="1:7">
       <c r="A140" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>358</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -7138,7 +7178,7 @@
         <v>57.549</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" hidden="1" spans="1:7">
       <c r="A141" s="2" t="s">
         <v>360</v>
       </c>
@@ -7161,7 +7201,7 @@
         <v>6.737</v>
       </c>
     </row>
-    <row r="142" ht="41" spans="1:7">
+    <row r="142" hidden="1" spans="1:7">
       <c r="A142" s="2" t="s">
         <v>362</v>
       </c>
@@ -7184,7 +7224,7 @@
         <v>44.234</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" hidden="1" spans="1:7">
       <c r="A143" s="2" t="s">
         <v>365</v>
       </c>
@@ -7207,7 +7247,7 @@
         <v>20.671</v>
       </c>
     </row>
-    <row r="144" ht="28" spans="1:7">
+    <row r="144" hidden="1" spans="1:7">
       <c r="A144" s="2" t="s">
         <v>368</v>
       </c>
@@ -7230,7 +7270,7 @@
         <v>6.002</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" hidden="1" spans="1:7">
       <c r="A145" s="2" t="s">
         <v>370</v>
       </c>
@@ -7253,7 +7293,7 @@
         <v>5.162</v>
       </c>
     </row>
-    <row r="146" ht="41" spans="1:7">
+    <row r="146" hidden="1" spans="1:7">
       <c r="A146" s="2" t="s">
         <v>372</v>
       </c>
@@ -7276,7 +7316,7 @@
         <v>4.952</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" hidden="1" spans="1:7">
       <c r="A147" s="2" t="s">
         <v>374</v>
       </c>
@@ -7299,7 +7339,7 @@
         <v>13.672</v>
       </c>
     </row>
-    <row r="148" ht="41" spans="1:7">
+    <row r="148" hidden="1" spans="1:7">
       <c r="A148" s="2" t="s">
         <v>377</v>
       </c>
@@ -7322,7 +7362,7 @@
         <v>9.531</v>
       </c>
     </row>
-    <row r="149" ht="41" spans="1:7">
+    <row r="149" hidden="1" spans="1:7">
       <c r="A149" s="2" t="s">
         <v>380</v>
       </c>
@@ -7345,7 +7385,7 @@
         <v>13.048</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" hidden="1" spans="1:7">
       <c r="A150" s="2" t="s">
         <v>383</v>
       </c>
@@ -7368,11 +7408,11 @@
         <v>6.085</v>
       </c>
     </row>
-    <row r="151" ht="41" spans="1:7">
+    <row r="151" spans="1:7">
       <c r="A151" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C151" s="2" t="s">
@@ -7391,7 +7431,7 @@
         <v>8.502</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" hidden="1" spans="1:7">
       <c r="A152" s="2" t="s">
         <v>389</v>
       </c>
@@ -7414,7 +7454,7 @@
         <v>39.386</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" hidden="1" spans="1:7">
       <c r="A153" s="2" t="s">
         <v>391</v>
       </c>
@@ -7437,7 +7477,7 @@
         <v>4.342</v>
       </c>
     </row>
-    <row r="154" ht="28" spans="1:7">
+    <row r="154" hidden="1" spans="1:7">
       <c r="A154" s="2" t="s">
         <v>393</v>
       </c>
@@ -7460,7 +7500,7 @@
         <v>107.974</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" hidden="1" spans="1:7">
       <c r="A155" s="2" t="s">
         <v>396</v>
       </c>
@@ -7483,7 +7523,7 @@
         <v>66.222</v>
       </c>
     </row>
-    <row r="156" ht="41" spans="1:7">
+    <row r="156" hidden="1" spans="1:7">
       <c r="A156" s="2" t="s">
         <v>398</v>
       </c>
@@ -7506,7 +7546,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" hidden="1" spans="1:7">
       <c r="A157" s="2" t="s">
         <v>401</v>
       </c>
@@ -7529,7 +7569,7 @@
         <v>9.085</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" hidden="1" spans="1:7">
       <c r="A158" s="2" t="s">
         <v>403</v>
       </c>
@@ -7552,7 +7592,7 @@
         <v>41.416</v>
       </c>
     </row>
-    <row r="159" ht="28" spans="1:7">
+    <row r="159" hidden="1" spans="1:7">
       <c r="A159" s="2" t="s">
         <v>405</v>
       </c>
@@ -7575,7 +7615,7 @@
         <v>5.273</v>
       </c>
     </row>
-    <row r="160" ht="41" spans="1:7">
+    <row r="160" hidden="1" spans="1:7">
       <c r="A160" s="2" t="s">
         <v>408</v>
       </c>
@@ -7598,11 +7638,11 @@
         <v>6.043</v>
       </c>
     </row>
-    <row r="161" ht="28" spans="1:7">
+    <row r="161" spans="1:7">
       <c r="A161" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C161" s="2" t="s">
@@ -7621,7 +7661,7 @@
         <v>61.902</v>
       </c>
     </row>
-    <row r="162" ht="28" spans="1:7">
+    <row r="162" hidden="1" spans="1:7">
       <c r="A162" s="2" t="s">
         <v>412</v>
       </c>
@@ -7644,7 +7684,7 @@
         <v>6.302</v>
       </c>
     </row>
-    <row r="163" ht="28" spans="1:7">
+    <row r="163" hidden="1" spans="1:7">
       <c r="A163" s="2" t="s">
         <v>414</v>
       </c>
@@ -7667,7 +7707,7 @@
         <v>7.876</v>
       </c>
     </row>
-    <row r="164" ht="41" spans="1:7">
+    <row r="164" hidden="1" spans="1:7">
       <c r="A164" s="2" t="s">
         <v>416</v>
       </c>
@@ -7690,7 +7730,7 @@
         <v>4.15</v>
       </c>
     </row>
-    <row r="165" ht="28" spans="1:7">
+    <row r="165" hidden="1" spans="1:7">
       <c r="A165" s="2" t="s">
         <v>418</v>
       </c>
@@ -7713,7 +7753,7 @@
         <v>12.099</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" hidden="1" spans="1:7">
       <c r="A166" s="2" t="s">
         <v>420</v>
       </c>
@@ -7736,11 +7776,11 @@
         <v>11.232</v>
       </c>
     </row>
-    <row r="167" ht="28" spans="1:7">
+    <row r="167" spans="1:7">
       <c r="A167" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>424</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -7759,7 +7799,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="168" ht="28" spans="1:7">
+    <row r="168" hidden="1" spans="1:7">
       <c r="A168" s="2" t="s">
         <v>425</v>
       </c>
@@ -7782,7 +7822,7 @@
         <v>28.299</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" hidden="1" spans="1:7">
       <c r="A169" s="2" t="s">
         <v>427</v>
       </c>
@@ -7805,7 +7845,7 @@
         <v>19.919</v>
       </c>
     </row>
-    <row r="170" ht="28" spans="1:7">
+    <row r="170" hidden="1" spans="1:7">
       <c r="A170" s="2" t="s">
         <v>430</v>
       </c>
@@ -7828,7 +7868,7 @@
         <v>118.48</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" hidden="1" spans="1:7">
       <c r="A171" s="2" t="s">
         <v>432</v>
       </c>
@@ -7851,7 +7891,7 @@
         <v>10.643</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" hidden="1" spans="1:7">
       <c r="A172" s="2" t="s">
         <v>434</v>
       </c>
@@ -7874,7 +7914,7 @@
         <v>3.188</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" hidden="1" spans="1:7">
       <c r="A173" s="2" t="s">
         <v>437</v>
       </c>
@@ -7897,7 +7937,7 @@
         <v>21.296</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" hidden="1" spans="1:7">
       <c r="A174" s="2" t="s">
         <v>439</v>
       </c>
@@ -7920,7 +7960,7 @@
         <v>27.447</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" hidden="1" spans="1:7">
       <c r="A175" s="2" t="s">
         <v>441</v>
       </c>
@@ -7943,7 +7983,7 @@
         <v>22.217</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" hidden="1" spans="1:7">
       <c r="A176" s="2" t="s">
         <v>443</v>
       </c>
@@ -7966,11 +8006,11 @@
         <v>13.459</v>
       </c>
     </row>
-    <row r="177" ht="28" spans="1:7">
+    <row r="177" spans="1:7">
       <c r="A177" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -7989,7 +8029,7 @@
         <v>3.024</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" hidden="1" spans="1:7">
       <c r="A178" s="2" t="s">
         <v>448</v>
       </c>
@@ -8012,7 +8052,7 @@
         <v>6.924</v>
       </c>
     </row>
-    <row r="179" ht="41" spans="1:7">
+    <row r="179" hidden="1" spans="1:7">
       <c r="A179" s="2" t="s">
         <v>451</v>
       </c>
@@ -8035,7 +8075,7 @@
         <v>3.194</v>
       </c>
     </row>
-    <row r="180" ht="28" spans="1:7">
+    <row r="180" hidden="1" spans="1:7">
       <c r="A180" s="2" t="s">
         <v>453</v>
       </c>
@@ -8058,7 +8098,7 @@
         <v>1.937</v>
       </c>
     </row>
-    <row r="181" ht="28" spans="1:7">
+    <row r="181" hidden="1" spans="1:7">
       <c r="A181" s="2" t="s">
         <v>456</v>
       </c>
@@ -8081,7 +8121,7 @@
         <v>11.368</v>
       </c>
     </row>
-    <row r="182" ht="41" spans="1:7">
+    <row r="182" hidden="1" spans="1:7">
       <c r="A182" s="2" t="s">
         <v>458</v>
       </c>
@@ -8104,7 +8144,7 @@
         <v>5.104</v>
       </c>
     </row>
-    <row r="183" ht="28" spans="1:7">
+    <row r="183" hidden="1" spans="1:7">
       <c r="A183" s="2" t="s">
         <v>460</v>
       </c>
@@ -8127,7 +8167,7 @@
         <v>7.882</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" hidden="1" spans="1:7">
       <c r="A184" s="2" t="s">
         <v>462</v>
       </c>
@@ -8150,7 +8190,7 @@
         <v>12.939</v>
       </c>
     </row>
-    <row r="185" ht="28" spans="1:7">
+    <row r="185" hidden="1" spans="1:7">
       <c r="A185" s="2" t="s">
         <v>464</v>
       </c>
@@ -8173,7 +8213,7 @@
         <v>13.879</v>
       </c>
     </row>
-    <row r="186" ht="28" spans="1:7">
+    <row r="186" hidden="1" spans="1:7">
       <c r="A186" s="2" t="s">
         <v>466</v>
       </c>
@@ -8196,7 +8236,7 @@
         <v>6.158</v>
       </c>
     </row>
-    <row r="187" ht="28" spans="1:7">
+    <row r="187" hidden="1" spans="1:7">
       <c r="A187" s="2" t="s">
         <v>469</v>
       </c>
@@ -8219,7 +8259,7 @@
         <v>48.292</v>
       </c>
     </row>
-    <row r="188" ht="28" spans="1:7">
+    <row r="188" hidden="1" spans="1:7">
       <c r="A188" s="2" t="s">
         <v>472</v>
       </c>
@@ -8242,7 +8282,7 @@
         <v>6.218</v>
       </c>
     </row>
-    <row r="189" ht="28" spans="1:7">
+    <row r="189" hidden="1" spans="1:7">
       <c r="A189" s="2" t="s">
         <v>474</v>
       </c>
@@ -8265,7 +8305,7 @@
         <v>26.809</v>
       </c>
     </row>
-    <row r="190" ht="28" spans="1:7">
+    <row r="190" hidden="1" spans="1:7">
       <c r="A190" s="2" t="s">
         <v>477</v>
       </c>
@@ -8288,11 +8328,11 @@
         <v>37.612</v>
       </c>
     </row>
-    <row r="191" ht="41" spans="1:7">
+    <row r="191" spans="1:7">
       <c r="A191" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>481</v>
       </c>
       <c r="C191" s="2" t="s">
@@ -8311,7 +8351,7 @@
         <v>6.139</v>
       </c>
     </row>
-    <row r="192" ht="28" spans="1:7">
+    <row r="192" hidden="1" spans="1:7">
       <c r="A192" s="2" t="s">
         <v>483</v>
       </c>
@@ -8334,7 +8374,7 @@
         <v>10.192</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" hidden="1" spans="1:7">
       <c r="A193" s="2" t="s">
         <v>485</v>
       </c>
@@ -8357,7 +8397,7 @@
         <v>20.742</v>
       </c>
     </row>
-    <row r="194" ht="55" spans="1:7">
+    <row r="194" hidden="1" spans="1:7">
       <c r="A194" s="2" t="s">
         <v>487</v>
       </c>
@@ -8380,7 +8420,7 @@
         <v>113.096</v>
       </c>
     </row>
-    <row r="195" ht="41" spans="1:7">
+    <row r="195" hidden="1" spans="1:7">
       <c r="A195" s="2" t="s">
         <v>489</v>
       </c>
@@ -8403,7 +8443,7 @@
         <v>13.354</v>
       </c>
     </row>
-    <row r="196" ht="28" spans="1:7">
+    <row r="196" hidden="1" spans="1:7">
       <c r="A196" s="2" t="s">
         <v>491</v>
       </c>
@@ -8426,7 +8466,7 @@
         <v>137.607</v>
       </c>
     </row>
-    <row r="197" ht="28" spans="1:7">
+    <row r="197" hidden="1" spans="1:7">
       <c r="A197" s="2" t="s">
         <v>494</v>
       </c>
@@ -8449,7 +8489,7 @@
         <v>8.674</v>
       </c>
     </row>
-    <row r="198" ht="28" spans="1:7">
+    <row r="198" hidden="1" spans="1:7">
       <c r="A198" s="2" t="s">
         <v>497</v>
       </c>
@@ -8472,7 +8512,7 @@
         <v>3.833</v>
       </c>
     </row>
-    <row r="199" ht="28" spans="1:7">
+    <row r="199" hidden="1" spans="1:7">
       <c r="A199" s="2" t="s">
         <v>499</v>
       </c>
@@ -8495,7 +8535,7 @@
         <v>6.539</v>
       </c>
     </row>
-    <row r="200" ht="28" spans="1:7">
+    <row r="200" hidden="1" spans="1:7">
       <c r="A200" s="2" t="s">
         <v>501</v>
       </c>
@@ -8518,7 +8558,7 @@
         <v>7.968</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" hidden="1" spans="1:7">
       <c r="A201" s="2" t="s">
         <v>503</v>
       </c>
@@ -8541,7 +8581,7 @@
         <v>32.548</v>
       </c>
     </row>
-    <row r="202" ht="28" spans="1:7">
+    <row r="202" hidden="1" spans="1:7">
       <c r="A202" s="2" t="s">
         <v>506</v>
       </c>
@@ -8564,7 +8604,7 @@
         <v>3.117</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" hidden="1" spans="1:7">
       <c r="A203" s="2" t="s">
         <v>509</v>
       </c>
@@ -8587,7 +8627,7 @@
         <v>48.128</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" hidden="1" spans="1:7">
       <c r="A204" s="2" t="s">
         <v>511</v>
       </c>
@@ -8610,7 +8650,7 @@
         <v>54.225</v>
       </c>
     </row>
-    <row r="205" ht="28" spans="1:7">
+    <row r="205" hidden="1" spans="1:7">
       <c r="A205" s="2" t="s">
         <v>513</v>
       </c>
@@ -8633,7 +8673,7 @@
         <v>4.666</v>
       </c>
     </row>
-    <row r="206" ht="28" spans="1:7">
+    <row r="206" hidden="1" spans="1:7">
       <c r="A206" s="2" t="s">
         <v>515</v>
       </c>
@@ -8656,7 +8696,7 @@
         <v>15.932</v>
       </c>
     </row>
-    <row r="207" ht="28" spans="1:7">
+    <row r="207" hidden="1" spans="1:7">
       <c r="A207" s="2" t="s">
         <v>517</v>
       </c>
@@ -8679,7 +8719,7 @@
         <v>7.694</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" hidden="1" spans="1:7">
       <c r="A208" s="2" t="s">
         <v>520</v>
       </c>
@@ -8702,7 +8742,7 @@
         <v>39.34</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" hidden="1" spans="1:7">
       <c r="A209" s="2" t="s">
         <v>522</v>
       </c>
@@ -8725,7 +8765,7 @@
         <v>3.583</v>
       </c>
     </row>
-    <row r="210" ht="28" spans="1:7">
+    <row r="210" hidden="1" spans="1:7">
       <c r="A210" s="2" t="s">
         <v>525</v>
       </c>
@@ -8748,7 +8788,7 @@
         <v>19.729</v>
       </c>
     </row>
-    <row r="211" ht="41" spans="1:7">
+    <row r="211" hidden="1" spans="1:7">
       <c r="A211" s="2" t="s">
         <v>527</v>
       </c>
@@ -8771,7 +8811,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="212" ht="55" spans="1:7">
+    <row r="212" hidden="1" spans="1:7">
       <c r="A212" s="2" t="s">
         <v>530</v>
       </c>
@@ -8794,7 +8834,7 @@
         <v>12.307</v>
       </c>
     </row>
-    <row r="213" ht="28" spans="1:7">
+    <row r="213" hidden="1" spans="1:7">
       <c r="A213" s="2" t="s">
         <v>532</v>
       </c>
@@ -8817,7 +8857,7 @@
         <v>84.241</v>
       </c>
     </row>
-    <row r="214" ht="28" spans="1:7">
+    <row r="214" hidden="1" spans="1:7">
       <c r="A214" s="2" t="s">
         <v>534</v>
       </c>
@@ -8840,7 +8880,7 @@
         <v>2.104</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" hidden="1" spans="1:7">
       <c r="A215" s="2" t="s">
         <v>537</v>
       </c>
@@ -8863,7 +8903,7 @@
         <v>22.017</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" hidden="1" spans="1:7">
       <c r="A216" s="2" t="s">
         <v>540</v>
       </c>
@@ -8886,7 +8926,7 @@
         <v>7.557</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" hidden="1" spans="1:7">
       <c r="A217" s="2" t="s">
         <v>542</v>
       </c>
@@ -8909,7 +8949,7 @@
         <v>34.373</v>
       </c>
     </row>
-    <row r="218" ht="55" spans="1:7">
+    <row r="218" hidden="1" spans="1:7">
       <c r="A218" s="2" t="s">
         <v>545</v>
       </c>
@@ -8932,7 +8972,7 @@
         <v>35.958</v>
       </c>
     </row>
-    <row r="219" ht="28" spans="1:7">
+    <row r="219" hidden="1" spans="1:7">
       <c r="A219" s="2" t="s">
         <v>547</v>
       </c>
@@ -8959,7 +8999,7 @@
       <c r="A220" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -8978,7 +9018,7 @@
         <v>17.622</v>
       </c>
     </row>
-    <row r="221" ht="28" spans="1:7">
+    <row r="221" hidden="1" spans="1:7">
       <c r="A221" s="2" t="s">
         <v>551</v>
       </c>
@@ -9001,7 +9041,7 @@
         <v>4.585</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" hidden="1" spans="1:7">
       <c r="A222" s="2" t="s">
         <v>553</v>
       </c>
@@ -9024,7 +9064,7 @@
         <v>5.932</v>
       </c>
     </row>
-    <row r="223" ht="28" spans="1:7">
+    <row r="223" hidden="1" spans="1:7">
       <c r="A223" s="2" t="s">
         <v>555</v>
       </c>
@@ -9047,7 +9087,7 @@
         <v>15.775</v>
       </c>
     </row>
-    <row r="224" ht="28" spans="1:7">
+    <row r="224" hidden="1" spans="1:7">
       <c r="A224" s="2" t="s">
         <v>557</v>
       </c>
@@ -9070,7 +9110,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="225" ht="55" spans="1:7">
+    <row r="225" hidden="1" spans="1:7">
       <c r="A225" s="2" t="s">
         <v>560</v>
       </c>
@@ -9093,11 +9133,11 @@
         <v>7.719</v>
       </c>
     </row>
-    <row r="226" ht="28" spans="1:7">
+    <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -9116,7 +9156,7 @@
         <v>8.907</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" hidden="1" spans="1:7">
       <c r="A227" s="2" t="s">
         <v>564</v>
       </c>
@@ -9139,7 +9179,7 @@
         <v>43.084</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" hidden="1" spans="1:7">
       <c r="A228" s="2" t="s">
         <v>567</v>
       </c>
@@ -9162,7 +9202,7 @@
         <v>4.955</v>
       </c>
     </row>
-    <row r="229" ht="55" spans="1:7">
+    <row r="229" hidden="1" spans="1:7">
       <c r="A229" s="2" t="s">
         <v>569</v>
       </c>
@@ -9185,7 +9225,7 @@
         <v>3.413</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" hidden="1" spans="1:7">
       <c r="A230" s="2" t="s">
         <v>571</v>
       </c>
@@ -9208,7 +9248,7 @@
         <v>49.249</v>
       </c>
     </row>
-    <row r="231" ht="41" spans="1:7">
+    <row r="231" hidden="1" spans="1:7">
       <c r="A231" s="2" t="s">
         <v>573</v>
       </c>
@@ -9231,7 +9271,7 @@
         <v>41.292</v>
       </c>
     </row>
-    <row r="232" ht="28" spans="1:7">
+    <row r="232" hidden="1" spans="1:7">
       <c r="A232" s="2" t="s">
         <v>575</v>
       </c>
@@ -9258,7 +9298,7 @@
       <c r="A233" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>579</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -9277,7 +9317,7 @@
         <v>3.305</v>
       </c>
     </row>
-    <row r="234" ht="41" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="2" t="s">
         <v>581</v>
       </c>
@@ -9300,7 +9340,7 @@
         <v>2.977</v>
       </c>
     </row>
-    <row r="235" ht="28" spans="1:7">
+    <row r="235" hidden="1" spans="1:7">
       <c r="A235" s="2" t="s">
         <v>583</v>
       </c>
@@ -9323,7 +9363,7 @@
         <v>7.483</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" hidden="1" spans="1:7">
       <c r="A236" s="2" t="s">
         <v>586</v>
       </c>
@@ -9346,7 +9386,7 @@
         <v>9.973</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" hidden="1" spans="1:7">
       <c r="A237" s="2" t="s">
         <v>588</v>
       </c>
@@ -9369,7 +9409,7 @@
         <v>11.491</v>
       </c>
     </row>
-    <row r="238" ht="28" spans="1:7">
+    <row r="238" hidden="1" spans="1:7">
       <c r="A238" s="2" t="s">
         <v>590</v>
       </c>
@@ -9392,7 +9432,7 @@
         <v>9.055</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" hidden="1" spans="1:7">
       <c r="A239" s="2" t="s">
         <v>593</v>
       </c>
@@ -9415,7 +9455,7 @@
         <v>32.925</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" hidden="1" spans="1:7">
       <c r="A240" s="2" t="s">
         <v>595</v>
       </c>
@@ -9438,7 +9478,7 @@
         <v>5.872</v>
       </c>
     </row>
-    <row r="241" ht="28" spans="1:7">
+    <row r="241" hidden="1" spans="1:7">
       <c r="A241" s="2" t="s">
         <v>597</v>
       </c>
@@ -9461,7 +9501,7 @@
         <v>6.647</v>
       </c>
     </row>
-    <row r="242" ht="28" spans="1:7">
+    <row r="242" hidden="1" spans="1:7">
       <c r="A242" s="2" t="s">
         <v>599</v>
       </c>
@@ -9484,7 +9524,7 @@
         <v>4.822</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" hidden="1" spans="1:7">
       <c r="A243" s="2" t="s">
         <v>602</v>
       </c>
@@ -9507,7 +9547,7 @@
         <v>12.548</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" hidden="1" spans="1:7">
       <c r="A244" s="2" t="s">
         <v>605</v>
       </c>
@@ -9530,7 +9570,7 @@
         <v>5.018</v>
       </c>
     </row>
-    <row r="245" ht="28" spans="1:7">
+    <row r="245" hidden="1" spans="1:7">
       <c r="A245" s="2" t="s">
         <v>607</v>
       </c>
@@ -9553,7 +9593,7 @@
         <v>6.245</v>
       </c>
     </row>
-    <row r="246" ht="41" spans="1:7">
+    <row r="246" hidden="1" spans="1:7">
       <c r="A246" s="2" t="s">
         <v>609</v>
       </c>
@@ -9576,7 +9616,7 @@
         <v>7.173</v>
       </c>
     </row>
-    <row r="247" ht="28" spans="1:7">
+    <row r="247" hidden="1" spans="1:7">
       <c r="A247" s="2" t="s">
         <v>611</v>
       </c>
@@ -9599,7 +9639,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="248" ht="41" spans="1:7">
+    <row r="248" hidden="1" spans="1:7">
       <c r="A248" s="2" t="s">
         <v>613</v>
       </c>
@@ -9622,7 +9662,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="249" ht="28" spans="1:7">
+    <row r="249" hidden="1" spans="1:7">
       <c r="A249" s="2" t="s">
         <v>615</v>
       </c>
@@ -9645,7 +9685,7 @@
         <v>9.039</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" hidden="1" spans="1:7">
       <c r="A250" s="2" t="s">
         <v>618</v>
       </c>
@@ -9668,7 +9708,7 @@
         <v>3.173</v>
       </c>
     </row>
-    <row r="251" ht="28" spans="1:7">
+    <row r="251" hidden="1" spans="1:7">
       <c r="A251" s="2" t="s">
         <v>620</v>
       </c>
@@ -9691,7 +9731,7 @@
         <v>51.523</v>
       </c>
     </row>
-    <row r="252" ht="28" spans="1:7">
+    <row r="252" hidden="1" spans="1:7">
       <c r="A252" s="2" t="s">
         <v>623</v>
       </c>
@@ -9714,7 +9754,7 @@
         <v>26.443</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" hidden="1" spans="1:7">
       <c r="A253" s="2" t="s">
         <v>625</v>
       </c>
@@ -9737,7 +9777,7 @@
         <v>15.104</v>
       </c>
     </row>
-    <row r="254" ht="82" spans="1:7">
+    <row r="254" hidden="1" spans="1:7">
       <c r="A254" s="2" t="s">
         <v>627</v>
       </c>
@@ -9760,7 +9800,7 @@
         <v>11.741</v>
       </c>
     </row>
-    <row r="255" ht="41" spans="1:7">
+    <row r="255" hidden="1" spans="1:7">
       <c r="A255" s="2" t="s">
         <v>629</v>
       </c>
@@ -9783,7 +9823,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" hidden="1" spans="1:7">
       <c r="A256" s="2" t="s">
         <v>631</v>
       </c>
@@ -9806,7 +9846,7 @@
         <v>23.658</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" hidden="1" spans="1:7">
       <c r="A257" s="2" t="s">
         <v>633</v>
       </c>
@@ -9829,7 +9869,7 @@
         <v>4.652</v>
       </c>
     </row>
-    <row r="258" ht="68" spans="1:7">
+    <row r="258" hidden="1" spans="1:7">
       <c r="A258" s="2" t="s">
         <v>635</v>
       </c>
@@ -9852,7 +9892,7 @@
         <v>17.324</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" hidden="1" spans="1:7">
       <c r="A259" s="2" t="s">
         <v>637</v>
       </c>
@@ -9875,7 +9915,7 @@
         <v>6.578</v>
       </c>
     </row>
-    <row r="260" ht="28" spans="1:7">
+    <row r="260" hidden="1" spans="1:7">
       <c r="A260" s="2" t="s">
         <v>639</v>
       </c>
@@ -9898,7 +9938,7 @@
         <v>18.453</v>
       </c>
     </row>
-    <row r="261" ht="28" spans="1:7">
+    <row r="261" hidden="1" spans="1:7">
       <c r="A261" s="2" t="s">
         <v>641</v>
       </c>
@@ -9921,7 +9961,7 @@
         <v>4.816</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" hidden="1" spans="1:7">
       <c r="A262" s="2" t="s">
         <v>643</v>
       </c>
@@ -9944,7 +9984,7 @@
         <v>10.762</v>
       </c>
     </row>
-    <row r="263" ht="28" spans="1:7">
+    <row r="263" hidden="1" spans="1:7">
       <c r="A263" s="2" t="s">
         <v>645</v>
       </c>
@@ -9967,7 +10007,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="264" ht="68" spans="1:7">
+    <row r="264" hidden="1" spans="1:7">
       <c r="A264" s="2" t="s">
         <v>647</v>
       </c>
@@ -9990,7 +10030,7 @@
         <v>29.683</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" hidden="1" spans="1:7">
       <c r="A265" s="2" t="s">
         <v>649</v>
       </c>
@@ -10013,7 +10053,7 @@
         <v>55.738</v>
       </c>
     </row>
-    <row r="266" ht="28" spans="1:7">
+    <row r="266" hidden="1" spans="1:7">
       <c r="A266" s="2" t="s">
         <v>652</v>
       </c>
@@ -10036,7 +10076,7 @@
         <v>10.343</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" hidden="1" spans="1:7">
       <c r="A267" s="2" t="s">
         <v>654</v>
       </c>
@@ -10059,7 +10099,7 @@
         <v>6.869</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" hidden="1" spans="1:7">
       <c r="A268" s="2" t="s">
         <v>656</v>
       </c>
@@ -10082,7 +10122,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="269" ht="41" spans="1:7">
+    <row r="269" hidden="1" spans="1:7">
       <c r="A269" s="2" t="s">
         <v>658</v>
       </c>
@@ -10105,7 +10145,7 @@
         <v>11.918</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" hidden="1" spans="1:7">
       <c r="A270" s="2" t="s">
         <v>661</v>
       </c>
@@ -10128,7 +10168,7 @@
         <v>34.114</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" hidden="1" spans="1:7">
       <c r="A271" s="2" t="s">
         <v>663</v>
       </c>
@@ -10151,7 +10191,7 @@
         <v>18.594</v>
       </c>
     </row>
-    <row r="272" ht="28" spans="1:7">
+    <row r="272" hidden="1" spans="1:7">
       <c r="A272" s="2" t="s">
         <v>666</v>
       </c>
@@ -10174,7 +10214,7 @@
         <v>5.719</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" hidden="1" spans="1:7">
       <c r="A273" s="2" t="s">
         <v>668</v>
       </c>
@@ -10197,7 +10237,7 @@
         <v>18.759</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" hidden="1" spans="1:7">
       <c r="A274" s="2" t="s">
         <v>670</v>
       </c>
@@ -10220,7 +10260,7 @@
         <v>21.743</v>
       </c>
     </row>
-    <row r="275" ht="28" spans="1:7">
+    <row r="275" hidden="1" spans="1:7">
       <c r="A275" s="2" t="s">
         <v>672</v>
       </c>
@@ -10243,7 +10283,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="276" ht="28" spans="1:7">
+    <row r="276" hidden="1" spans="1:7">
       <c r="A276" s="2" t="s">
         <v>674</v>
       </c>
@@ -10266,7 +10306,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" hidden="1" spans="1:7">
       <c r="A277" s="2" t="s">
         <v>676</v>
       </c>
@@ -10293,7 +10333,7 @@
       <c r="A278" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>679</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -10312,7 +10352,7 @@
         <v>12.902</v>
       </c>
     </row>
-    <row r="279" ht="28" spans="1:7">
+    <row r="279" hidden="1" spans="1:7">
       <c r="A279" s="2" t="s">
         <v>680</v>
       </c>
@@ -10335,7 +10375,7 @@
         <v>23.771</v>
       </c>
     </row>
-    <row r="280" ht="28" spans="1:7">
+    <row r="280" hidden="1" spans="1:7">
       <c r="A280" s="2" t="s">
         <v>683</v>
       </c>
@@ -10358,11 +10398,11 @@
         <v>19.675</v>
       </c>
     </row>
-    <row r="281" ht="55" spans="1:7">
+    <row r="281" spans="1:7">
       <c r="A281" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>686</v>
       </c>
       <c r="C281" s="2" t="s">
@@ -10381,7 +10421,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" hidden="1" spans="1:7">
       <c r="A282" s="2" t="s">
         <v>687</v>
       </c>
@@ -10404,7 +10444,7 @@
         <v>7.534</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" hidden="1" spans="1:7">
       <c r="A283" s="2" t="s">
         <v>689</v>
       </c>
@@ -10427,7 +10467,7 @@
         <v>19.9</v>
       </c>
     </row>
-    <row r="284" ht="28" spans="1:7">
+    <row r="284" hidden="1" spans="1:7">
       <c r="A284" s="2" t="s">
         <v>691</v>
       </c>
@@ -10450,7 +10490,7 @@
         <v>4.283</v>
       </c>
     </row>
-    <row r="285" ht="28" spans="1:7">
+    <row r="285" hidden="1" spans="1:7">
       <c r="A285" s="2" t="s">
         <v>693</v>
       </c>
@@ -10473,7 +10513,7 @@
         <v>12.794</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" hidden="1" spans="1:7">
       <c r="A286" s="2" t="s">
         <v>695</v>
       </c>
@@ -10496,7 +10536,7 @@
         <v>22.382</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" hidden="1" spans="1:7">
       <c r="A287" s="2" t="s">
         <v>698</v>
       </c>
@@ -10523,7 +10563,7 @@
       <c r="A288" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C288" s="2" t="s">
@@ -10542,7 +10582,7 @@
         <v>5.257</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" hidden="1" spans="1:7">
       <c r="A289" s="2" t="s">
         <v>702</v>
       </c>
@@ -10565,7 +10605,7 @@
         <v>6.907</v>
       </c>
     </row>
-    <row r="290" ht="28" spans="1:7">
+    <row r="290" hidden="1" spans="1:7">
       <c r="A290" s="2" t="s">
         <v>704</v>
       </c>
@@ -10588,7 +10628,7 @@
         <v>8.315</v>
       </c>
     </row>
-    <row r="291" ht="28" spans="1:7">
+    <row r="291" hidden="1" spans="1:7">
       <c r="A291" s="2" t="s">
         <v>706</v>
       </c>
@@ -10611,11 +10651,11 @@
         <v>11.361</v>
       </c>
     </row>
-    <row r="292" ht="28" spans="1:7">
+    <row r="292" spans="1:7">
       <c r="A292" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -10634,7 +10674,7 @@
         <v>13.549</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" hidden="1" spans="1:7">
       <c r="A293" s="2" t="s">
         <v>710</v>
       </c>
@@ -10657,7 +10697,7 @@
         <v>18.132</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" hidden="1" spans="1:7">
       <c r="A294" s="2" t="s">
         <v>713</v>
       </c>
@@ -10680,7 +10720,7 @@
         <v>34.688</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" hidden="1" spans="1:7">
       <c r="A295" s="2" t="s">
         <v>716</v>
       </c>
@@ -10703,11 +10743,11 @@
         <v>12.918</v>
       </c>
     </row>
-    <row r="296" ht="28" spans="1:7">
+    <row r="296" spans="1:7">
       <c r="A296" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C296" s="2" t="s">
@@ -10726,7 +10766,7 @@
         <v>121.301</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" hidden="1" spans="1:7">
       <c r="A297" s="2" t="s">
         <v>720</v>
       </c>
@@ -10749,7 +10789,7 @@
         <v>14.714</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" hidden="1" spans="1:7">
       <c r="A298" s="2" t="s">
         <v>723</v>
       </c>
@@ -10772,7 +10812,7 @@
         <v>11.311</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" hidden="1" spans="1:7">
       <c r="A299" s="2" t="s">
         <v>726</v>
       </c>
@@ -10795,7 +10835,7 @@
         <v>10.67</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" hidden="1" spans="1:7">
       <c r="A300" s="2" t="s">
         <v>728</v>
       </c>
@@ -10818,7 +10858,7 @@
         <v>14.112</v>
       </c>
     </row>
-    <row r="301" ht="41" spans="1:7">
+    <row r="301" hidden="1" spans="1:7">
       <c r="A301" s="2" t="s">
         <v>730</v>
       </c>
@@ -10845,7 +10885,7 @@
       <c r="A302" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="3" t="s">
         <v>733</v>
       </c>
       <c r="C302" s="2" t="s">
@@ -10864,7 +10904,7 @@
         <v>16.349</v>
       </c>
     </row>
-    <row r="303" ht="28" spans="1:7">
+    <row r="303" hidden="1" spans="1:7">
       <c r="A303" s="2" t="s">
         <v>734</v>
       </c>
@@ -10887,7 +10927,7 @@
         <v>11.576</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" hidden="1" spans="1:7">
       <c r="A304" s="2" t="s">
         <v>736</v>
       </c>
@@ -10910,11 +10950,11 @@
         <v>32.491</v>
       </c>
     </row>
-    <row r="305" ht="68" spans="1:7">
+    <row r="305" spans="1:7">
       <c r="A305" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C305" s="2" t="s">
@@ -10933,7 +10973,7 @@
         <v>14.172</v>
       </c>
     </row>
-    <row r="306" ht="28" spans="1:7">
+    <row r="306" hidden="1" spans="1:7">
       <c r="A306" s="2" t="s">
         <v>740</v>
       </c>
@@ -10956,7 +10996,7 @@
         <v>7.104</v>
       </c>
     </row>
-    <row r="307" ht="28" spans="1:7">
+    <row r="307" hidden="1" spans="1:7">
       <c r="A307" s="2" t="s">
         <v>742</v>
       </c>
@@ -10979,7 +11019,7 @@
         <v>13.104</v>
       </c>
     </row>
-    <row r="308" ht="28" spans="1:7">
+    <row r="308" hidden="1" spans="1:7">
       <c r="A308" s="2" t="s">
         <v>744</v>
       </c>
@@ -11002,7 +11042,7 @@
         <v>311.062</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" hidden="1" spans="1:7">
       <c r="A309" s="2" t="s">
         <v>746</v>
       </c>
@@ -11025,7 +11065,7 @@
         <v>4.264</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" hidden="1" spans="1:7">
       <c r="A310" s="2" t="s">
         <v>748</v>
       </c>
@@ -11048,7 +11088,7 @@
         <v>19.071</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" hidden="1" spans="1:7">
       <c r="A311" s="2" t="s">
         <v>751</v>
       </c>
@@ -11071,7 +11111,7 @@
         <v>5.337</v>
       </c>
     </row>
-    <row r="312" ht="41" spans="1:7">
+    <row r="312" hidden="1" spans="1:7">
       <c r="A312" s="2" t="s">
         <v>753</v>
       </c>
@@ -11094,7 +11134,7 @@
         <v>34.367</v>
       </c>
     </row>
-    <row r="313" ht="41" spans="1:7">
+    <row r="313" hidden="1" spans="1:7">
       <c r="A313" s="2" t="s">
         <v>755</v>
       </c>
@@ -11117,7 +11157,7 @@
         <v>2.431</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" hidden="1" spans="1:7">
       <c r="A314" s="2" t="s">
         <v>758</v>
       </c>
@@ -11140,7 +11180,7 @@
         <v>33.31</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" hidden="1" spans="1:7">
       <c r="A315" s="2" t="s">
         <v>760</v>
       </c>
@@ -11163,7 +11203,7 @@
         <v>2.768</v>
       </c>
     </row>
-    <row r="316" ht="55" spans="1:7">
+    <row r="316" hidden="1" spans="1:7">
       <c r="A316" s="2" t="s">
         <v>762</v>
       </c>
@@ -11190,7 +11230,7 @@
       <c r="A317" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="3" t="s">
         <v>765</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -11209,7 +11249,7 @@
         <v>9.731</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" hidden="1" spans="1:7">
       <c r="A318" s="2" t="s">
         <v>767</v>
       </c>
@@ -11232,7 +11272,7 @@
         <v>25.183</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" hidden="1" spans="1:7">
       <c r="A319" s="2" t="s">
         <v>769</v>
       </c>
@@ -11255,7 +11295,7 @@
         <v>22.922</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" hidden="1" spans="1:7">
       <c r="A320" s="2" t="s">
         <v>772</v>
       </c>
@@ -11278,7 +11318,7 @@
         <v>5.176</v>
       </c>
     </row>
-    <row r="321" ht="28" spans="1:7">
+    <row r="321" hidden="1" spans="1:7">
       <c r="A321" s="2" t="s">
         <v>774</v>
       </c>
@@ -11301,7 +11341,7 @@
         <v>6.595</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" hidden="1" spans="1:7">
       <c r="A322" s="2" t="s">
         <v>777</v>
       </c>
@@ -11324,11 +11364,11 @@
         <v>12.246</v>
       </c>
     </row>
-    <row r="323" ht="28" spans="1:7">
+    <row r="323" spans="1:7">
       <c r="A323" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="3" t="s">
         <v>781</v>
       </c>
       <c r="C323" s="2" t="s">
@@ -11347,7 +11387,7 @@
         <v>5.907</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" hidden="1" spans="1:7">
       <c r="A324" s="2" t="s">
         <v>782</v>
       </c>
@@ -11370,7 +11410,7 @@
         <v>34.504</v>
       </c>
     </row>
-    <row r="325" ht="41" spans="1:7">
+    <row r="325" hidden="1" spans="1:7">
       <c r="A325" s="2" t="s">
         <v>784</v>
       </c>
@@ -11393,7 +11433,7 @@
         <v>14.62</v>
       </c>
     </row>
-    <row r="326" ht="28" spans="1:7">
+    <row r="326" hidden="1" spans="1:7">
       <c r="A326" s="2" t="s">
         <v>786</v>
       </c>
@@ -11420,7 +11460,7 @@
       <c r="A327" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="3" t="s">
         <v>789</v>
       </c>
       <c r="C327" s="2" t="s">
@@ -11439,7 +11479,7 @@
         <v>9.019</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" hidden="1" spans="1:7">
       <c r="A328" s="2" t="s">
         <v>790</v>
       </c>
@@ -11462,7 +11502,7 @@
         <v>4.848</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" hidden="1" spans="1:7">
       <c r="A329" s="2" t="s">
         <v>792</v>
       </c>
@@ -11485,7 +11525,7 @@
         <v>7.382</v>
       </c>
     </row>
-    <row r="330" ht="41" spans="1:7">
+    <row r="330" hidden="1" spans="1:7">
       <c r="A330" s="2" t="s">
         <v>794</v>
       </c>
@@ -11508,7 +11548,7 @@
         <v>44.278</v>
       </c>
     </row>
-    <row r="331" ht="28" spans="1:7">
+    <row r="331" hidden="1" spans="1:7">
       <c r="A331" s="2" t="s">
         <v>796</v>
       </c>
@@ -11531,7 +11571,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="332" ht="41" spans="1:7">
+    <row r="332" hidden="1" spans="1:7">
       <c r="A332" s="2" t="s">
         <v>798</v>
       </c>
@@ -11554,7 +11594,7 @@
         <v>18.735</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" hidden="1" spans="1:7">
       <c r="A333" s="2" t="s">
         <v>800</v>
       </c>
@@ -11581,7 +11621,7 @@
       <c r="A334" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C334" s="2" t="s">
@@ -11604,7 +11644,7 @@
       <c r="A335" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C335" s="2" t="s">
@@ -11623,7 +11663,7 @@
         <v>8.095</v>
       </c>
     </row>
-    <row r="336" ht="68" spans="1:7">
+    <row r="336" hidden="1" spans="1:7">
       <c r="A336" s="2" t="s">
         <v>808</v>
       </c>
@@ -11646,7 +11686,7 @@
         <v>3.448</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" hidden="1" spans="1:7">
       <c r="A337" s="2" t="s">
         <v>810</v>
       </c>
@@ -11669,7 +11709,7 @@
         <v>61.653</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" hidden="1" spans="1:7">
       <c r="A338" s="2" t="s">
         <v>812</v>
       </c>
@@ -11692,7 +11732,7 @@
         <v>74.149</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" hidden="1" spans="1:7">
       <c r="A339" s="2" t="s">
         <v>814</v>
       </c>
@@ -11715,7 +11755,7 @@
         <v>5.497</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" hidden="1" spans="1:7">
       <c r="A340" s="2" t="s">
         <v>816</v>
       </c>
@@ -11738,7 +11778,7 @@
         <v>16.158</v>
       </c>
     </row>
-    <row r="341" ht="28" spans="1:7">
+    <row r="341" hidden="1" spans="1:7">
       <c r="A341" s="2" t="s">
         <v>818</v>
       </c>
@@ -11761,7 +11801,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="342" ht="41" spans="1:7">
+    <row r="342" hidden="1" spans="1:7">
       <c r="A342" s="2" t="s">
         <v>820</v>
       </c>
@@ -11784,7 +11824,7 @@
         <v>12.213</v>
       </c>
     </row>
-    <row r="343" ht="28" spans="1:7">
+    <row r="343" hidden="1" spans="1:7">
       <c r="A343" s="2" t="s">
         <v>822</v>
       </c>
@@ -11807,7 +11847,7 @@
         <v>10.982</v>
       </c>
     </row>
-    <row r="344" ht="28" spans="1:7">
+    <row r="344" hidden="1" spans="1:7">
       <c r="A344" s="2" t="s">
         <v>824</v>
       </c>
@@ -11830,7 +11870,7 @@
         <v>20.491</v>
       </c>
     </row>
-    <row r="345" ht="55" spans="1:7">
+    <row r="345" hidden="1" spans="1:7">
       <c r="A345" s="2" t="s">
         <v>826</v>
       </c>
@@ -11853,7 +11893,7 @@
         <v>16.261</v>
       </c>
     </row>
-    <row r="346" ht="28" spans="1:7">
+    <row r="346" hidden="1" spans="1:7">
       <c r="A346" s="2" t="s">
         <v>828</v>
       </c>
@@ -11876,7 +11916,7 @@
         <v>33.271</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" hidden="1" spans="1:7">
       <c r="A347" s="2" t="s">
         <v>830</v>
       </c>
@@ -11899,7 +11939,7 @@
         <v>52.75</v>
       </c>
     </row>
-    <row r="348" ht="28" spans="1:7">
+    <row r="348" hidden="1" spans="1:7">
       <c r="A348" s="2" t="s">
         <v>832</v>
       </c>
@@ -11922,7 +11962,7 @@
         <v>6.307</v>
       </c>
     </row>
-    <row r="349" ht="28" spans="1:7">
+    <row r="349" hidden="1" spans="1:7">
       <c r="A349" s="2" t="s">
         <v>834</v>
       </c>
@@ -11945,7 +11985,7 @@
         <v>20.353</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" hidden="1" spans="1:7">
       <c r="A350" s="2" t="s">
         <v>836</v>
       </c>
@@ -11968,11 +12008,11 @@
         <v>42.076</v>
       </c>
     </row>
-    <row r="351" ht="28" spans="1:7">
+    <row r="351" spans="1:7">
       <c r="A351" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="3" t="s">
         <v>840</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -11991,7 +12031,7 @@
         <v>7.157</v>
       </c>
     </row>
-    <row r="352" ht="28" spans="1:7">
+    <row r="352" hidden="1" spans="1:7">
       <c r="A352" s="2" t="s">
         <v>841</v>
       </c>
@@ -12014,7 +12054,7 @@
         <v>14.076</v>
       </c>
     </row>
-    <row r="353" ht="55" spans="1:7">
+    <row r="353" hidden="1" spans="1:7">
       <c r="A353" s="2" t="s">
         <v>843</v>
       </c>
@@ -12037,7 +12077,7 @@
         <v>2.958</v>
       </c>
     </row>
-    <row r="354" ht="28" spans="1:7">
+    <row r="354" hidden="1" spans="1:7">
       <c r="A354" s="2" t="s">
         <v>845</v>
       </c>
@@ -12060,7 +12100,7 @@
         <v>18.585</v>
       </c>
     </row>
-    <row r="355" ht="41" spans="1:7">
+    <row r="355" hidden="1" spans="1:7">
       <c r="A355" s="2" t="s">
         <v>847</v>
       </c>
@@ -12083,7 +12123,7 @@
         <v>22.749</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" hidden="1" spans="1:7">
       <c r="A356" s="2" t="s">
         <v>849</v>
       </c>
@@ -12110,7 +12150,7 @@
       <c r="A357" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="3" t="s">
         <v>852</v>
       </c>
       <c r="C357" s="2" t="s">
@@ -12129,7 +12169,7 @@
         <v>21.419</v>
       </c>
     </row>
-    <row r="358" ht="28" spans="1:7">
+    <row r="358" hidden="1" spans="1:7">
       <c r="A358" s="2" t="s">
         <v>853</v>
       </c>
@@ -12152,7 +12192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" hidden="1" spans="1:7">
       <c r="A359" s="2" t="s">
         <v>856</v>
       </c>
@@ -12175,11 +12215,11 @@
         <v>19.483</v>
       </c>
     </row>
-    <row r="360" ht="41" spans="1:7">
+    <row r="360" spans="1:7">
       <c r="A360" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="3" t="s">
         <v>859</v>
       </c>
       <c r="C360" s="2" t="s">
@@ -12198,7 +12238,7 @@
         <v>21.819</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" hidden="1" spans="1:7">
       <c r="A361" s="2" t="s">
         <v>860</v>
       </c>
@@ -12221,7 +12261,7 @@
         <v>11.217</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" hidden="1" spans="1:7">
       <c r="A362" s="2" t="s">
         <v>862</v>
       </c>
@@ -12244,7 +12284,7 @@
         <v>10.531</v>
       </c>
     </row>
-    <row r="363" ht="28" spans="1:7">
+    <row r="363" hidden="1" spans="1:7">
       <c r="A363" s="2" t="s">
         <v>865</v>
       </c>
@@ -12267,11 +12307,11 @@
         <v>12.226</v>
       </c>
     </row>
-    <row r="364" ht="41" spans="1:7">
+    <row r="364" spans="1:7">
       <c r="A364" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="3" t="s">
         <v>868</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -12290,7 +12330,7 @@
         <v>9.211</v>
       </c>
     </row>
-    <row r="365" ht="28" spans="1:7">
+    <row r="365" hidden="1" spans="1:7">
       <c r="A365" s="2" t="s">
         <v>869</v>
       </c>
@@ -12313,7 +12353,7 @@
         <v>13.728</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" hidden="1" spans="1:7">
       <c r="A366" s="2" t="s">
         <v>871</v>
       </c>
@@ -12336,7 +12376,7 @@
         <v>5.276</v>
       </c>
     </row>
-    <row r="367" ht="55" spans="1:7">
+    <row r="367" hidden="1" spans="1:7">
       <c r="A367" s="2" t="s">
         <v>873</v>
       </c>
@@ -12359,7 +12399,7 @@
         <v>9.641</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" hidden="1" spans="1:7">
       <c r="A368" s="2" t="s">
         <v>876</v>
       </c>
@@ -12382,7 +12422,7 @@
         <v>99.495</v>
       </c>
     </row>
-    <row r="369" ht="28" spans="1:7">
+    <row r="369" hidden="1" spans="1:7">
       <c r="A369" s="2" t="s">
         <v>878</v>
       </c>
@@ -12405,7 +12445,7 @@
         <v>3.326</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" hidden="1" spans="1:7">
       <c r="A370" s="2" t="s">
         <v>881</v>
       </c>
@@ -12428,7 +12468,7 @@
         <v>1.427</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" hidden="1" spans="1:7">
       <c r="A371" s="2" t="s">
         <v>883</v>
       </c>
@@ -12451,7 +12491,7 @@
         <v>22.27</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" hidden="1" spans="1:7">
       <c r="A372" s="2" t="s">
         <v>885</v>
       </c>
@@ -12474,7 +12514,7 @@
         <v>29.236</v>
       </c>
     </row>
-    <row r="373" ht="28" spans="1:7">
+    <row r="373" hidden="1" spans="1:7">
       <c r="A373" s="2" t="s">
         <v>888</v>
       </c>
@@ -12497,7 +12537,7 @@
         <v>3.869</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" hidden="1" spans="1:7">
       <c r="A374" s="2" t="s">
         <v>890</v>
       </c>
@@ -12520,7 +12560,7 @@
         <v>71.69</v>
       </c>
     </row>
-    <row r="375" ht="28" spans="1:7">
+    <row r="375" hidden="1" spans="1:7">
       <c r="A375" s="2" t="s">
         <v>892</v>
       </c>
@@ -12543,7 +12583,7 @@
         <v>11.41</v>
       </c>
     </row>
-    <row r="376" ht="28" spans="1:7">
+    <row r="376" hidden="1" spans="1:7">
       <c r="A376" s="2" t="s">
         <v>894</v>
       </c>
@@ -12566,7 +12606,7 @@
         <v>3.546</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" hidden="1" spans="1:7">
       <c r="A377" s="2" t="s">
         <v>897</v>
       </c>
@@ -12589,7 +12629,7 @@
         <v>6.501</v>
       </c>
     </row>
-    <row r="378" ht="41" spans="1:7">
+    <row r="378" hidden="1" spans="1:7">
       <c r="A378" s="2" t="s">
         <v>899</v>
       </c>
@@ -12612,7 +12652,7 @@
         <v>6.922</v>
       </c>
     </row>
-    <row r="379" ht="28" spans="1:7">
+    <row r="379" hidden="1" spans="1:7">
       <c r="A379" s="2" t="s">
         <v>901</v>
       </c>
@@ -12635,7 +12675,7 @@
         <v>4.834</v>
       </c>
     </row>
-    <row r="380" ht="55" spans="1:7">
+    <row r="380" hidden="1" spans="1:7">
       <c r="A380" s="2" t="s">
         <v>904</v>
       </c>
@@ -12658,7 +12698,7 @@
         <v>12.714</v>
       </c>
     </row>
-    <row r="381" ht="28" spans="1:7">
+    <row r="381" hidden="1" spans="1:7">
       <c r="A381" s="2" t="s">
         <v>906</v>
       </c>
@@ -12681,7 +12721,7 @@
         <v>4.225</v>
       </c>
     </row>
-    <row r="382" ht="55" spans="1:7">
+    <row r="382" hidden="1" spans="1:7">
       <c r="A382" s="2" t="s">
         <v>909</v>
       </c>
@@ -12704,7 +12744,7 @@
         <v>13.476</v>
       </c>
     </row>
-    <row r="383" ht="28" spans="1:7">
+    <row r="383" hidden="1" spans="1:7">
       <c r="A383" s="2" t="s">
         <v>911</v>
       </c>
@@ -12727,7 +12767,7 @@
         <v>6.576</v>
       </c>
     </row>
-    <row r="384" ht="28" spans="1:7">
+    <row r="384" hidden="1" spans="1:7">
       <c r="A384" s="2" t="s">
         <v>913</v>
       </c>
@@ -12750,7 +12790,7 @@
         <v>12.239</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" hidden="1" spans="1:7">
       <c r="A385" s="2" t="s">
         <v>915</v>
       </c>
@@ -12773,7 +12813,7 @@
         <v>18.79</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" hidden="1" spans="1:7">
       <c r="A386" s="2" t="s">
         <v>917</v>
       </c>
@@ -12796,7 +12836,7 @@
         <v>25.582</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" hidden="1" spans="1:7">
       <c r="A387" s="2" t="s">
         <v>919</v>
       </c>
@@ -12819,11 +12859,11 @@
         <v>4.157</v>
       </c>
     </row>
-    <row r="388" ht="28" spans="1:7">
+    <row r="388" spans="1:7">
       <c r="A388" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="3" t="s">
         <v>922</v>
       </c>
       <c r="C388" s="2" t="s">
@@ -12842,7 +12882,7 @@
         <v>32.775</v>
       </c>
     </row>
-    <row r="389" ht="28" spans="1:7">
+    <row r="389" hidden="1" spans="1:7">
       <c r="A389" s="2" t="s">
         <v>924</v>
       </c>
@@ -12865,7 +12905,7 @@
         <v>43.669</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" hidden="1" spans="1:7">
       <c r="A390" s="2" t="s">
         <v>926</v>
       </c>
@@ -12888,7 +12928,7 @@
         <v>187.451</v>
       </c>
     </row>
-    <row r="391" ht="28" spans="1:7">
+    <row r="391" hidden="1" spans="1:7">
       <c r="A391" s="2" t="s">
         <v>928</v>
       </c>
@@ -12911,7 +12951,7 @@
         <v>15.869</v>
       </c>
     </row>
-    <row r="392" ht="28" spans="1:7">
+    <row r="392" hidden="1" spans="1:7">
       <c r="A392" s="2" t="s">
         <v>930</v>
       </c>
@@ -12934,7 +12974,7 @@
         <v>7.324</v>
       </c>
     </row>
-    <row r="393" ht="28" spans="1:7">
+    <row r="393" hidden="1" spans="1:7">
       <c r="A393" s="2" t="s">
         <v>932</v>
       </c>
@@ -12957,7 +12997,7 @@
         <v>21.857</v>
       </c>
     </row>
-    <row r="394" ht="28" spans="1:7">
+    <row r="394" hidden="1" spans="1:7">
       <c r="A394" s="2" t="s">
         <v>934</v>
       </c>
@@ -12980,7 +13020,7 @@
         <v>12.416</v>
       </c>
     </row>
-    <row r="395" ht="28" spans="1:7">
+    <row r="395" hidden="1" spans="1:7">
       <c r="A395" s="2" t="s">
         <v>936</v>
       </c>
@@ -13003,7 +13043,7 @@
         <v>2.061</v>
       </c>
     </row>
-    <row r="396" ht="28" spans="1:7">
+    <row r="396" hidden="1" spans="1:7">
       <c r="A396" s="2" t="s">
         <v>938</v>
       </c>
@@ -13026,7 +13066,7 @@
         <v>6.055</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" hidden="1" spans="1:7">
       <c r="A397" s="2" t="s">
         <v>940</v>
       </c>
@@ -13049,7 +13089,7 @@
         <v>11.159</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" hidden="1" spans="1:7">
       <c r="A398" s="2" t="s">
         <v>942</v>
       </c>
@@ -13073,6 +13113,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B398">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
